--- a/all_time_comparisons_rows.xlsx
+++ b/all_time_comparisons_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PimKe\Documents\Master Thesis\contingency_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB8A66-3A4B-4034-89C0-A6B60956ECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65B1DE-1F47-445A-B77E-EE7DEE513032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/all_time_comparisons_rows.xlsx
+++ b/all_time_comparisons_rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PimKe\Documents\Master Thesis\contingency_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\pimk\Documents\contingency_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65B1DE-1F47-445A-B77E-EE7DEE513032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E489768-8458-4D44-8BC6-0237FFD77D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>chisq2</t>
   </si>
@@ -147,6 +147,48 @@
   <si>
     <t>lp_3_chisq4</t>
   </si>
+  <si>
+    <t>asymp5</t>
+  </si>
+  <si>
+    <t>fisher5</t>
+  </si>
+  <si>
+    <t>boschloo5</t>
+  </si>
+  <si>
+    <t>sym5</t>
+  </si>
+  <si>
+    <t>chisq5</t>
+  </si>
+  <si>
+    <t>ss5</t>
+  </si>
+  <si>
+    <t>vol_classes5</t>
+  </si>
+  <si>
+    <t>vol_ext5</t>
+  </si>
+  <si>
+    <t>lp_3_sym5</t>
+  </si>
+  <si>
+    <t>lp_3_vol_classes5</t>
+  </si>
+  <si>
+    <t>lp_3_chisq5</t>
+  </si>
+  <si>
+    <t>lp_sym5</t>
+  </si>
+  <si>
+    <t>lp_vol5</t>
+  </si>
+  <si>
+    <t>lp_chisq5</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,15 +521,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -614,8 +684,50 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.6139999999999998E-4</v>
       </c>
@@ -689,7 +801,7 @@
         <v>18.995864900000001</v>
       </c>
       <c r="Y2">
-        <v>0.86095339999999998</v>
+        <v>0.1878464</v>
       </c>
       <c r="Z2">
         <v>0.47739890000000001</v>
@@ -742,8 +854,50 @@
       <c r="AP2">
         <v>1.5836950000000001</v>
       </c>
+      <c r="AQ2">
+        <v>6.2750000000000002E-4</v>
+      </c>
+      <c r="AR2">
+        <v>2.3576000000000001E-3</v>
+      </c>
+      <c r="AS2">
+        <v>6.9720176</v>
+      </c>
+      <c r="AT2">
+        <v>44.395296800000004</v>
+      </c>
+      <c r="AU2">
+        <v>20.9157306</v>
+      </c>
+      <c r="AV2">
+        <v>6.5884892000000006</v>
+      </c>
+      <c r="AW2">
+        <v>31.560835700000002</v>
+      </c>
+      <c r="AX2">
+        <v>6.3723058000000004</v>
+      </c>
+      <c r="AY2">
+        <v>1.2006848999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.88929750000000007</v>
+      </c>
+      <c r="BA2">
+        <v>0.66341890000000003</v>
+      </c>
+      <c r="BB2">
+        <v>1.4077098000000001</v>
+      </c>
+      <c r="BC2">
+        <v>0.91442849999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.86585389999999995</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.4799999999999998E-4</v>
       </c>
@@ -870,8 +1024,50 @@
       <c r="AP3">
         <v>1.7052579000000001</v>
       </c>
+      <c r="AQ3">
+        <v>8.4559999999999995E-4</v>
+      </c>
+      <c r="AR3">
+        <v>9.0910000000000003E-4</v>
+      </c>
+      <c r="AS3">
+        <v>7.3258861</v>
+      </c>
+      <c r="AT3">
+        <v>17.597435300000001</v>
+      </c>
+      <c r="AU3">
+        <v>23.869589999999999</v>
+      </c>
+      <c r="AV3">
+        <v>6.4780264000000001</v>
+      </c>
+      <c r="AW3">
+        <v>13.3876317</v>
+      </c>
+      <c r="AX3">
+        <v>6.3889345000000004</v>
+      </c>
+      <c r="AY3">
+        <v>1.1766023000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>0.91568559999999999</v>
+      </c>
+      <c r="BA3">
+        <v>0.67324790000000001</v>
+      </c>
+      <c r="BB3">
+        <v>1.3492046</v>
+      </c>
+      <c r="BC3">
+        <v>0.95363399999999998</v>
+      </c>
+      <c r="BD3">
+        <v>0.89509680000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.708E-4</v>
       </c>
@@ -998,8 +1194,50 @@
       <c r="AP4">
         <v>1.5653169</v>
       </c>
+      <c r="AQ4">
+        <v>6.2540000000000002E-4</v>
+      </c>
+      <c r="AR4">
+        <v>6.5620000000000001E-4</v>
+      </c>
+      <c r="AS4">
+        <v>6.9637437000000002</v>
+      </c>
+      <c r="AT4">
+        <v>29.8166951</v>
+      </c>
+      <c r="AU4">
+        <v>19.580617499999999</v>
+      </c>
+      <c r="AV4">
+        <v>6.2044515000000002</v>
+      </c>
+      <c r="AW4">
+        <v>23.719727299999999</v>
+      </c>
+      <c r="AX4">
+        <v>6.3596897999999999</v>
+      </c>
+      <c r="AY4">
+        <v>1.1697225</v>
+      </c>
+      <c r="AZ4">
+        <v>0.88567510000000005</v>
+      </c>
+      <c r="BA4">
+        <v>0.65585380000000004</v>
+      </c>
+      <c r="BB4">
+        <v>1.4172311</v>
+      </c>
+      <c r="BC4">
+        <v>0.95206119999999994</v>
+      </c>
+      <c r="BD4">
+        <v>0.85007140000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.11E-4</v>
       </c>
@@ -1126,8 +1364,50 @@
       <c r="AP5">
         <v>1.6737149</v>
       </c>
+      <c r="AQ5">
+        <v>6.8059999999999996E-4</v>
+      </c>
+      <c r="AR5">
+        <v>8.786E-4</v>
+      </c>
+      <c r="AS5">
+        <v>6.9642185000000003</v>
+      </c>
+      <c r="AT5">
+        <v>46.160217200000005</v>
+      </c>
+      <c r="AU5">
+        <v>2.4403134999999998</v>
+      </c>
+      <c r="AV5">
+        <v>6.3439418000000005</v>
+      </c>
+      <c r="AW5">
+        <v>35.3903125</v>
+      </c>
+      <c r="AX5">
+        <v>6.6490906000000001</v>
+      </c>
+      <c r="AY5">
+        <v>1.1705483000000001</v>
+      </c>
+      <c r="AZ5">
+        <v>0.83740630000000005</v>
+      </c>
+      <c r="BA5">
+        <v>0.60262090000000001</v>
+      </c>
+      <c r="BB5">
+        <v>1.3359780000000001</v>
+      </c>
+      <c r="BC5">
+        <v>0.94088849999999991</v>
+      </c>
+      <c r="BD5">
+        <v>0.86832739999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.9920000000000004E-4</v>
       </c>
@@ -1254,8 +1534,50 @@
       <c r="AP6">
         <v>1.5772094999999999</v>
       </c>
+      <c r="AQ6">
+        <v>6.089E-4</v>
+      </c>
+      <c r="AR6">
+        <v>6.0910000000000001E-4</v>
+      </c>
+      <c r="AS6">
+        <v>6.9916334000000004</v>
+      </c>
+      <c r="AT6">
+        <v>30.0715413</v>
+      </c>
+      <c r="AU6">
+        <v>19.531837700000001</v>
+      </c>
+      <c r="AV6">
+        <v>6.4056580000000007</v>
+      </c>
+      <c r="AW6">
+        <v>27.2631105</v>
+      </c>
+      <c r="AX6">
+        <v>6.4230788000000008</v>
+      </c>
+      <c r="AY6">
+        <v>1.0923379</v>
+      </c>
+      <c r="AZ6">
+        <v>0.89028240000000003</v>
+      </c>
+      <c r="BA6">
+        <v>0.66455319999999996</v>
+      </c>
+      <c r="BB6">
+        <v>1.3417296000000001</v>
+      </c>
+      <c r="BC6">
+        <v>0.93325499999999995</v>
+      </c>
+      <c r="BD6">
+        <v>0.88145390000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.886E-4</v>
       </c>
@@ -1382,8 +1704,50 @@
       <c r="AP7">
         <v>1.6155895</v>
       </c>
+      <c r="AQ7">
+        <v>7.2480000000000005E-4</v>
+      </c>
+      <c r="AR7">
+        <v>6.8789999999999997E-4</v>
+      </c>
+      <c r="AS7">
+        <v>6.9417974000000005</v>
+      </c>
+      <c r="AT7">
+        <v>0.75226660000000001</v>
+      </c>
+      <c r="AU7">
+        <v>2.9374265999999998</v>
+      </c>
+      <c r="AV7">
+        <v>6.2993013000000007</v>
+      </c>
+      <c r="AW7">
+        <v>1.085931</v>
+      </c>
+      <c r="AX7">
+        <v>6.3980118000000008</v>
+      </c>
+      <c r="AY7">
+        <v>1.2615053000000001</v>
+      </c>
+      <c r="AZ7">
+        <v>0.89648869999999992</v>
+      </c>
+      <c r="BA7">
+        <v>0.83378079999999999</v>
+      </c>
+      <c r="BB7">
+        <v>1.5475814999999999</v>
+      </c>
+      <c r="BC7">
+        <v>1.0404074999999999</v>
+      </c>
+      <c r="BD7">
+        <v>0.91778519999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.674E-4</v>
       </c>
@@ -1510,8 +1874,50 @@
       <c r="AP8">
         <v>1.6485204</v>
       </c>
+      <c r="AQ8">
+        <v>1.2236E-3</v>
+      </c>
+      <c r="AR8">
+        <v>8.0150000000000002E-4</v>
+      </c>
+      <c r="AS8">
+        <v>7.0726126000000002</v>
+      </c>
+      <c r="AT8">
+        <v>11.8834863</v>
+      </c>
+      <c r="AU8">
+        <v>2.3704383999999998</v>
+      </c>
+      <c r="AV8">
+        <v>6.3665547</v>
+      </c>
+      <c r="AW8">
+        <v>9.1686884000000006</v>
+      </c>
+      <c r="AX8">
+        <v>6.3964117000000007</v>
+      </c>
+      <c r="AY8">
+        <v>1.8682567999999999</v>
+      </c>
+      <c r="AZ8">
+        <v>0.91845650000000001</v>
+      </c>
+      <c r="BA8">
+        <v>0.59028389999999997</v>
+      </c>
+      <c r="BB8">
+        <v>1.4361570000000001</v>
+      </c>
+      <c r="BC8">
+        <v>0.97587249999999992</v>
+      </c>
+      <c r="BD8">
+        <v>0.89553119999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.6279999999999996E-4</v>
       </c>
@@ -1638,8 +2044,50 @@
       <c r="AP9">
         <v>1.618892</v>
       </c>
+      <c r="AQ9">
+        <v>5.8779999999999998E-4</v>
+      </c>
+      <c r="AR9">
+        <v>7.3340000000000005E-4</v>
+      </c>
+      <c r="AS9">
+        <v>7.0874433999999997</v>
+      </c>
+      <c r="AT9">
+        <v>31.291273199999999</v>
+      </c>
+      <c r="AU9">
+        <v>16.750903399999999</v>
+      </c>
+      <c r="AV9">
+        <v>6.3560805</v>
+      </c>
+      <c r="AW9">
+        <v>43.558168199999997</v>
+      </c>
+      <c r="AX9">
+        <v>6.2806420000000003</v>
+      </c>
+      <c r="AY9">
+        <v>1.1512137</v>
+      </c>
+      <c r="AZ9">
+        <v>0.8077856000000001</v>
+      </c>
+      <c r="BA9">
+        <v>0.74768180000000006</v>
+      </c>
+      <c r="BB9">
+        <v>1.4139413000000001</v>
+      </c>
+      <c r="BC9">
+        <v>0.92634869999999991</v>
+      </c>
+      <c r="BD9">
+        <v>0.90028540000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.5880000000000003E-4</v>
       </c>
@@ -1766,8 +2214,50 @@
       <c r="AP10">
         <v>1.5805586</v>
       </c>
+      <c r="AQ10">
+        <v>6.0439999999999995E-4</v>
+      </c>
+      <c r="AR10">
+        <v>6.9819999999999995E-4</v>
+      </c>
+      <c r="AS10">
+        <v>7.1783507000000002</v>
+      </c>
+      <c r="AT10">
+        <v>23.086486600000001</v>
+      </c>
+      <c r="AU10">
+        <v>7.8132890000000002</v>
+      </c>
+      <c r="AV10">
+        <v>6.5676165000000006</v>
+      </c>
+      <c r="AW10">
+        <v>23.645902299999999</v>
+      </c>
+      <c r="AX10">
+        <v>6.3988557000000004</v>
+      </c>
+      <c r="AY10">
+        <v>1.1922477</v>
+      </c>
+      <c r="AZ10">
+        <v>0.84004340000000011</v>
+      </c>
+      <c r="BA10">
+        <v>0.58474389999999998</v>
+      </c>
+      <c r="BB10">
+        <v>1.4072335</v>
+      </c>
+      <c r="BC10">
+        <v>0.93630219999999997</v>
+      </c>
+      <c r="BD10">
+        <v>0.85545959999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.5429999999999998E-4</v>
       </c>
@@ -1894,8 +2384,50 @@
       <c r="AP11">
         <v>1.6822277999999999</v>
       </c>
+      <c r="AQ11">
+        <v>6.6430000000000005E-4</v>
+      </c>
+      <c r="AR11">
+        <v>8.0659999999999998E-4</v>
+      </c>
+      <c r="AS11">
+        <v>6.9508819000000006</v>
+      </c>
+      <c r="AT11">
+        <v>37.276538400000007</v>
+      </c>
+      <c r="AU11">
+        <v>2.4143726999999999</v>
+      </c>
+      <c r="AV11">
+        <v>6.3838841000000004</v>
+      </c>
+      <c r="AW11">
+        <v>47.092215199999998</v>
+      </c>
+      <c r="AX11">
+        <v>6.3615544000000002</v>
+      </c>
+      <c r="AY11">
+        <v>1.9135374999999999</v>
+      </c>
+      <c r="AZ11">
+        <v>0.9328133999999999</v>
+      </c>
+      <c r="BA11">
+        <v>0.60878860000000001</v>
+      </c>
+      <c r="BB11">
+        <v>1.631702</v>
+      </c>
+      <c r="BC11">
+        <v>0.91478629999999994</v>
+      </c>
+      <c r="BD11">
+        <v>0.8797547</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6.4090000000000002E-4</v>
       </c>
@@ -2022,8 +2554,50 @@
       <c r="AP12">
         <v>1.6234772</v>
       </c>
+      <c r="AQ12">
+        <v>6.2830000000000004E-4</v>
+      </c>
+      <c r="AR12">
+        <v>6.9050000000000003E-4</v>
+      </c>
+      <c r="AS12">
+        <v>6.9668210000000004</v>
+      </c>
+      <c r="AT12">
+        <v>28.981472400000001</v>
+      </c>
+      <c r="AU12">
+        <v>8.8397843000000016</v>
+      </c>
+      <c r="AV12">
+        <v>6.4556912000000004</v>
+      </c>
+      <c r="AW12">
+        <v>10.633918599999999</v>
+      </c>
+      <c r="AX12">
+        <v>6.5366020000000002</v>
+      </c>
+      <c r="AY12">
+        <v>1.1963888</v>
+      </c>
+      <c r="AZ12">
+        <v>0.88125549999999997</v>
+      </c>
+      <c r="BA12">
+        <v>0.80788519999999997</v>
+      </c>
+      <c r="BB12">
+        <v>1.3855721000000001</v>
+      </c>
+      <c r="BC12">
+        <v>0.98182320000000001</v>
+      </c>
+      <c r="BD12">
+        <v>0.91076440000000003</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.396E-4</v>
       </c>
@@ -2150,8 +2724,50 @@
       <c r="AP13">
         <v>1.6715951</v>
       </c>
+      <c r="AQ13">
+        <v>6.3250000000000003E-4</v>
+      </c>
+      <c r="AR13">
+        <v>1.2597000000000001E-3</v>
+      </c>
+      <c r="AS13">
+        <v>7.1200229999999998</v>
+      </c>
+      <c r="AT13">
+        <v>33.700299100000002</v>
+      </c>
+      <c r="AU13">
+        <v>7.6684992000000003</v>
+      </c>
+      <c r="AV13">
+        <v>6.3514645000000005</v>
+      </c>
+      <c r="AW13">
+        <v>29.762166300000001</v>
+      </c>
+      <c r="AX13">
+        <v>6.2724258000000006</v>
+      </c>
+      <c r="AY13">
+        <v>1.12138</v>
+      </c>
+      <c r="AZ13">
+        <v>0.83320860000000008</v>
+      </c>
+      <c r="BA13">
+        <v>0.60382329999999995</v>
+      </c>
+      <c r="BB13">
+        <v>1.3052864</v>
+      </c>
+      <c r="BC13">
+        <v>0.91198109999999999</v>
+      </c>
+      <c r="BD13">
+        <v>0.88902499999999995</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.6030000000000001E-4</v>
       </c>
@@ -2278,8 +2894,50 @@
       <c r="AP14">
         <v>1.5730568</v>
       </c>
+      <c r="AQ14">
+        <v>6.089E-4</v>
+      </c>
+      <c r="AR14">
+        <v>1.1244E-3</v>
+      </c>
+      <c r="AS14">
+        <v>7.1449151000000004</v>
+      </c>
+      <c r="AT14">
+        <v>10.0174383</v>
+      </c>
+      <c r="AU14">
+        <v>14.6476275</v>
+      </c>
+      <c r="AV14">
+        <v>6.5023082000000008</v>
+      </c>
+      <c r="AW14">
+        <v>8.972142400000001</v>
+      </c>
+      <c r="AX14">
+        <v>6.3962037</v>
+      </c>
+      <c r="AY14">
+        <v>1.2397682999999999</v>
+      </c>
+      <c r="AZ14">
+        <v>0.89817290000000005</v>
+      </c>
+      <c r="BA14">
+        <v>0.76904430000000001</v>
+      </c>
+      <c r="BB14">
+        <v>1.3184396</v>
+      </c>
+      <c r="BC14">
+        <v>0.98693719999999996</v>
+      </c>
+      <c r="BD14">
+        <v>0.92021849999999994</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.9620000000000001E-4</v>
       </c>
@@ -2406,8 +3064,50 @@
       <c r="AP15">
         <v>1.6352175</v>
       </c>
+      <c r="AQ15">
+        <v>6.3080000000000005E-4</v>
+      </c>
+      <c r="AR15">
+        <v>6.9899999999999997E-4</v>
+      </c>
+      <c r="AS15">
+        <v>6.9367951000000003</v>
+      </c>
+      <c r="AT15">
+        <v>7.0905715999999996</v>
+      </c>
+      <c r="AU15">
+        <v>5.6495284000000003</v>
+      </c>
+      <c r="AV15">
+        <v>6.3235780000000004</v>
+      </c>
+      <c r="AW15">
+        <v>5.8831252000000003</v>
+      </c>
+      <c r="AX15">
+        <v>6.3448120000000001</v>
+      </c>
+      <c r="AY15">
+        <v>1.2634745000000001</v>
+      </c>
+      <c r="AZ15">
+        <v>0.92055320000000007</v>
+      </c>
+      <c r="BA15">
+        <v>0.80375430000000003</v>
+      </c>
+      <c r="BB15">
+        <v>1.2950533</v>
+      </c>
+      <c r="BC15">
+        <v>0.97917579999999993</v>
+      </c>
+      <c r="BD15">
+        <v>0.94011440000000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.8059999999999996E-4</v>
       </c>
@@ -2534,8 +3234,50 @@
       <c r="AP16">
         <v>1.5950134</v>
       </c>
+      <c r="AQ16">
+        <v>6.6640000000000004E-4</v>
+      </c>
+      <c r="AR16">
+        <v>8.6010000000000004E-4</v>
+      </c>
+      <c r="AS16">
+        <v>6.9089065000000005</v>
+      </c>
+      <c r="AT16">
+        <v>37.706230700000006</v>
+      </c>
+      <c r="AU16">
+        <v>2.4446653</v>
+      </c>
+      <c r="AV16">
+        <v>6.328144</v>
+      </c>
+      <c r="AW16">
+        <v>37.521998699999997</v>
+      </c>
+      <c r="AX16">
+        <v>6.4606963000000004</v>
+      </c>
+      <c r="AY16">
+        <v>1.9031237999999999</v>
+      </c>
+      <c r="AZ16">
+        <v>0.97390189999999999</v>
+      </c>
+      <c r="BA16">
+        <v>0.60319990000000001</v>
+      </c>
+      <c r="BB16">
+        <v>1.2749265000000001</v>
+      </c>
+      <c r="BC16">
+        <v>0.91162519999999991</v>
+      </c>
+      <c r="BD16">
+        <v>0.89601509999999995</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.6420000000000005E-4</v>
       </c>
@@ -2662,8 +3404,50 @@
       <c r="AP17">
         <v>1.6396603999999999</v>
       </c>
+      <c r="AQ17">
+        <v>5.9610000000000002E-4</v>
+      </c>
+      <c r="AR17">
+        <v>1.2466000000000001E-3</v>
+      </c>
+      <c r="AS17">
+        <v>6.9572191999999999</v>
+      </c>
+      <c r="AT17">
+        <v>29.117291900000001</v>
+      </c>
+      <c r="AU17">
+        <v>16.6504464</v>
+      </c>
+      <c r="AV17">
+        <v>6.5120379000000002</v>
+      </c>
+      <c r="AW17">
+        <v>29.4670968</v>
+      </c>
+      <c r="AX17">
+        <v>6.3508210000000007</v>
+      </c>
+      <c r="AY17">
+        <v>1.177238</v>
+      </c>
+      <c r="AZ17">
+        <v>0.8893994999999999</v>
+      </c>
+      <c r="BA17">
+        <v>0.77133269999999998</v>
+      </c>
+      <c r="BB17">
+        <v>1.2656788999999999</v>
+      </c>
+      <c r="BC17">
+        <v>0.92551229999999995</v>
+      </c>
+      <c r="BD17">
+        <v>0.90279149999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.5279999999999999E-4</v>
       </c>
@@ -2790,8 +3574,50 @@
       <c r="AP18">
         <v>1.5985271999999999</v>
       </c>
+      <c r="AQ18">
+        <v>5.6610000000000005E-4</v>
+      </c>
+      <c r="AR18">
+        <v>7.2179999999999998E-4</v>
+      </c>
+      <c r="AS18">
+        <v>7.3273666000000004</v>
+      </c>
+      <c r="AT18">
+        <v>36.533299100000001</v>
+      </c>
+      <c r="AU18">
+        <v>17.9019063</v>
+      </c>
+      <c r="AV18">
+        <v>6.3001402000000004</v>
+      </c>
+      <c r="AW18">
+        <v>29.551263899999999</v>
+      </c>
+      <c r="AX18">
+        <v>6.4203825999999999</v>
+      </c>
+      <c r="AY18">
+        <v>1.1499804</v>
+      </c>
+      <c r="AZ18">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="BA18">
+        <v>0.66503069999999997</v>
+      </c>
+      <c r="BB18">
+        <v>1.2914425</v>
+      </c>
+      <c r="BC18">
+        <v>0.94528999999999996</v>
+      </c>
+      <c r="BD18">
+        <v>0.88353749999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.3160000000000002E-4</v>
       </c>
@@ -2918,8 +3744,50 @@
       <c r="AP19">
         <v>1.6530556999999999</v>
       </c>
+      <c r="AQ19">
+        <v>1.0537000000000001E-3</v>
+      </c>
+      <c r="AR19">
+        <v>6.5950000000000004E-4</v>
+      </c>
+      <c r="AS19">
+        <v>7.0263571000000002</v>
+      </c>
+      <c r="AT19">
+        <v>43.632143000000006</v>
+      </c>
+      <c r="AU19">
+        <v>2.4065938999999998</v>
+      </c>
+      <c r="AV19">
+        <v>6.3929119000000005</v>
+      </c>
+      <c r="AW19">
+        <v>32.0783731</v>
+      </c>
+      <c r="AX19">
+        <v>6.4714955000000005</v>
+      </c>
+      <c r="AY19">
+        <v>1.1395474999999999</v>
+      </c>
+      <c r="AZ19">
+        <v>0.9438899999999999</v>
+      </c>
+      <c r="BA19">
+        <v>0.61712429999999996</v>
+      </c>
+      <c r="BB19">
+        <v>1.2752787999999999</v>
+      </c>
+      <c r="BC19">
+        <v>0.95824419999999999</v>
+      </c>
+      <c r="BD19">
+        <v>0.87454370000000003</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.2870000000000005E-4</v>
       </c>
@@ -3046,8 +3914,50 @@
       <c r="AP20">
         <v>1.6102616000000001</v>
       </c>
+      <c r="AQ20">
+        <v>6.2750000000000002E-4</v>
+      </c>
+      <c r="AR20">
+        <v>7.6429999999999998E-4</v>
+      </c>
+      <c r="AS20">
+        <v>7.0803150000000006</v>
+      </c>
+      <c r="AT20">
+        <v>10.032300899999999</v>
+      </c>
+      <c r="AU20">
+        <v>14.637034300000002</v>
+      </c>
+      <c r="AV20">
+        <v>6.2867327000000008</v>
+      </c>
+      <c r="AW20">
+        <v>8.6508391000000007</v>
+      </c>
+      <c r="AX20">
+        <v>6.5231660000000007</v>
+      </c>
+      <c r="AY20">
+        <v>1.2706088</v>
+      </c>
+      <c r="AZ20">
+        <v>0.92073530000000003</v>
+      </c>
+      <c r="BA20">
+        <v>0.74924449999999998</v>
+      </c>
+      <c r="BB20">
+        <v>1.3153561</v>
+      </c>
+      <c r="BC20">
+        <v>0.9820835</v>
+      </c>
+      <c r="BD20">
+        <v>0.92058490000000004</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.6729999999999997E-4</v>
       </c>
@@ -3174,8 +4084,50 @@
       <c r="AP21">
         <v>1.5841611</v>
       </c>
+      <c r="AQ21">
+        <v>7.4819999999999997E-4</v>
+      </c>
+      <c r="AR21">
+        <v>7.2900000000000005E-4</v>
+      </c>
+      <c r="AS21">
+        <v>6.9043906000000002</v>
+      </c>
+      <c r="AT21">
+        <v>18.997469200000001</v>
+      </c>
+      <c r="AU21">
+        <v>10.218581800000001</v>
+      </c>
+      <c r="AV21">
+        <v>6.3115520000000007</v>
+      </c>
+      <c r="AW21">
+        <v>12.647335500000001</v>
+      </c>
+      <c r="AX21">
+        <v>6.4208107999999999</v>
+      </c>
+      <c r="AY21">
+        <v>1.2174086</v>
+      </c>
+      <c r="AZ21">
+        <v>0.83001619999999998</v>
+      </c>
+      <c r="BA21">
+        <v>0.78336939999999999</v>
+      </c>
+      <c r="BB21">
+        <v>1.2924968000000001</v>
+      </c>
+      <c r="BC21">
+        <v>0.97042239999999991</v>
+      </c>
+      <c r="BD21">
+        <v>0.89255649999999997</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.7239999999999997E-4</v>
       </c>
@@ -3302,8 +4254,50 @@
       <c r="AP22">
         <v>1.719444</v>
       </c>
+      <c r="AQ22">
+        <v>5.8250000000000001E-4</v>
+      </c>
+      <c r="AR22">
+        <v>6.7350000000000005E-4</v>
+      </c>
+      <c r="AS22">
+        <v>7.0881332000000006</v>
+      </c>
+      <c r="AT22">
+        <v>6.8135551000000003</v>
+      </c>
+      <c r="AU22">
+        <v>5.5912601000000004</v>
+      </c>
+      <c r="AV22">
+        <v>6.3037762000000006</v>
+      </c>
+      <c r="AW22">
+        <v>4.0418757999999997</v>
+      </c>
+      <c r="AX22">
+        <v>6.5407334000000006</v>
+      </c>
+      <c r="AY22">
+        <v>1.2838735999999999</v>
+      </c>
+      <c r="AZ22">
+        <v>0.90665529999999994</v>
+      </c>
+      <c r="BA22">
+        <v>0.81221540000000003</v>
+      </c>
+      <c r="BB22">
+        <v>1.3196804</v>
+      </c>
+      <c r="BC22">
+        <v>0.96938179999999996</v>
+      </c>
+      <c r="BD22">
+        <v>0.90660609999999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.6800000000000004E-4</v>
       </c>
@@ -3430,8 +4424,50 @@
       <c r="AP23">
         <v>1.6134173000000001</v>
       </c>
+      <c r="AQ23">
+        <v>6.2290000000000002E-4</v>
+      </c>
+      <c r="AR23">
+        <v>7.7260000000000002E-4</v>
+      </c>
+      <c r="AS23">
+        <v>7.0863206999999999</v>
+      </c>
+      <c r="AT23">
+        <v>1.3099637999999998</v>
+      </c>
+      <c r="AU23">
+        <v>2.9451983999999998</v>
+      </c>
+      <c r="AV23">
+        <v>6.4191445000000007</v>
+      </c>
+      <c r="AW23">
+        <v>0.78547330000000004</v>
+      </c>
+      <c r="AX23">
+        <v>6.4381311000000006</v>
+      </c>
+      <c r="AY23">
+        <v>1.2851026999999999</v>
+      </c>
+      <c r="AZ23">
+        <v>0.90048320000000004</v>
+      </c>
+      <c r="BA23">
+        <v>0.82993479999999997</v>
+      </c>
+      <c r="BB23">
+        <v>1.3434576</v>
+      </c>
+      <c r="BC23">
+        <v>0.97111069999999999</v>
+      </c>
+      <c r="BD23">
+        <v>0.91203049999999997</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.5860000000000003E-4</v>
       </c>
@@ -3558,8 +4594,50 @@
       <c r="AP24">
         <v>1.6544935000000001</v>
       </c>
+      <c r="AQ24">
+        <v>8.6200000000000003E-4</v>
+      </c>
+      <c r="AR24">
+        <v>7.5520000000000003E-4</v>
+      </c>
+      <c r="AS24">
+        <v>7.0903318999999998</v>
+      </c>
+      <c r="AT24">
+        <v>7.1091746000000002</v>
+      </c>
+      <c r="AU24">
+        <v>5.8728337000000002</v>
+      </c>
+      <c r="AV24">
+        <v>6.6243225000000008</v>
+      </c>
+      <c r="AW24">
+        <v>4.4144123999999998</v>
+      </c>
+      <c r="AX24">
+        <v>6.3982087000000005</v>
+      </c>
+      <c r="AY24">
+        <v>1.2884248</v>
+      </c>
+      <c r="AZ24">
+        <v>0.93396630000000003</v>
+      </c>
+      <c r="BA24">
+        <v>0.80225360000000001</v>
+      </c>
+      <c r="BB24">
+        <v>1.316584</v>
+      </c>
+      <c r="BC24">
+        <v>0.97501289999999996</v>
+      </c>
+      <c r="BD24">
+        <v>0.92597119999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.5369999999999996E-4</v>
       </c>
@@ -3686,8 +4764,50 @@
       <c r="AP25">
         <v>1.6429539</v>
       </c>
+      <c r="AQ25">
+        <v>6.2679999999999995E-4</v>
+      </c>
+      <c r="AR25">
+        <v>7.8019999999999999E-4</v>
+      </c>
+      <c r="AS25">
+        <v>7.2242948</v>
+      </c>
+      <c r="AT25">
+        <v>3.6881203999999999</v>
+      </c>
+      <c r="AU25">
+        <v>3.6365137999999999</v>
+      </c>
+      <c r="AV25">
+        <v>6.4137389000000002</v>
+      </c>
+      <c r="AW25">
+        <v>1.5675650999999999</v>
+      </c>
+      <c r="AX25">
+        <v>6.3512612000000006</v>
+      </c>
+      <c r="AY25">
+        <v>1.2977730999999999</v>
+      </c>
+      <c r="AZ25">
+        <v>0.93127610000000005</v>
+      </c>
+      <c r="BA25">
+        <v>0.81505369999999999</v>
+      </c>
+      <c r="BB25">
+        <v>1.2999494</v>
+      </c>
+      <c r="BC25">
+        <v>0.95483359999999995</v>
+      </c>
+      <c r="BD25">
+        <v>0.92907099999999998</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.5940000000000004E-4</v>
       </c>
@@ -3814,8 +4934,50 @@
       <c r="AP26">
         <v>1.6531009999999999</v>
       </c>
+      <c r="AQ26">
+        <v>5.8600000000000004E-4</v>
+      </c>
+      <c r="AR26">
+        <v>6.7900000000000002E-4</v>
+      </c>
+      <c r="AS26">
+        <v>7.1088181000000006</v>
+      </c>
+      <c r="AT26">
+        <v>37.276790900000002</v>
+      </c>
+      <c r="AU26">
+        <v>2.3857113000000001</v>
+      </c>
+      <c r="AV26">
+        <v>6.3772222000000003</v>
+      </c>
+      <c r="AW26">
+        <v>31.630198499999999</v>
+      </c>
+      <c r="AX26">
+        <v>6.3100228000000005</v>
+      </c>
+      <c r="AY26">
+        <v>1.9054099</v>
+      </c>
+      <c r="AZ26">
+        <v>0.93598110000000001</v>
+      </c>
+      <c r="BA26">
+        <v>0.63006169999999995</v>
+      </c>
+      <c r="BB26">
+        <v>1.2793345</v>
+      </c>
+      <c r="BC26">
+        <v>0.9133734</v>
+      </c>
+      <c r="BD26">
+        <v>0.87460700000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.2969999999999996E-4</v>
       </c>
@@ -3942,8 +5104,50 @@
       <c r="AP27">
         <v>1.6017490999999999</v>
       </c>
+      <c r="AQ27">
+        <v>9.0269999999999999E-4</v>
+      </c>
+      <c r="AR27">
+        <v>7.2230000000000005E-4</v>
+      </c>
+      <c r="AS27">
+        <v>6.9500881000000003</v>
+      </c>
+      <c r="AT27">
+        <v>2.1229583999999999</v>
+      </c>
+      <c r="AU27">
+        <v>22.9451283</v>
+      </c>
+      <c r="AV27">
+        <v>6.3726498000000005</v>
+      </c>
+      <c r="AW27">
+        <v>3.2493046000000003</v>
+      </c>
+      <c r="AX27">
+        <v>6.5792278</v>
+      </c>
+      <c r="AY27">
+        <v>1.2171596999999998</v>
+      </c>
+      <c r="AZ27">
+        <v>0.88562629999999998</v>
+      </c>
+      <c r="BA27">
+        <v>0.82157020000000003</v>
+      </c>
+      <c r="BB27">
+        <v>1.3141423000000001</v>
+      </c>
+      <c r="BC27">
+        <v>1.0025581000000001</v>
+      </c>
+      <c r="BD27">
+        <v>0.93149130000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.5000000000000003E-4</v>
       </c>
@@ -4070,8 +5274,50 @@
       <c r="AP28">
         <v>1.5521111000000001</v>
       </c>
+      <c r="AQ28">
+        <v>8.8420000000000002E-4</v>
+      </c>
+      <c r="AR28">
+        <v>7.4629999999999998E-4</v>
+      </c>
+      <c r="AS28">
+        <v>6.9569574000000003</v>
+      </c>
+      <c r="AT28">
+        <v>1.2910876</v>
+      </c>
+      <c r="AU28">
+        <v>2.8983371999999998</v>
+      </c>
+      <c r="AV28">
+        <v>6.2868632</v>
+      </c>
+      <c r="AW28">
+        <v>0.79807300000000003</v>
+      </c>
+      <c r="AX28">
+        <v>6.3631363000000007</v>
+      </c>
+      <c r="AY28">
+        <v>1.3021491999999999</v>
+      </c>
+      <c r="AZ28">
+        <v>0.89914390000000011</v>
+      </c>
+      <c r="BA28">
+        <v>0.83428029999999997</v>
+      </c>
+      <c r="BB28">
+        <v>1.3178075</v>
+      </c>
+      <c r="BC28">
+        <v>0.98772629999999995</v>
+      </c>
+      <c r="BD28">
+        <v>0.93521779999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.6410000000000004E-4</v>
       </c>
@@ -4198,8 +5444,50 @@
       <c r="AP29">
         <v>1.7144381</v>
       </c>
+      <c r="AQ29">
+        <v>5.8040000000000001E-4</v>
+      </c>
+      <c r="AR29">
+        <v>7.0859999999999999E-4</v>
+      </c>
+      <c r="AS29">
+        <v>7.0977348999999998</v>
+      </c>
+      <c r="AT29">
+        <v>28.785959099999999</v>
+      </c>
+      <c r="AU29">
+        <v>16.851560799999998</v>
+      </c>
+      <c r="AV29">
+        <v>6.3572488000000007</v>
+      </c>
+      <c r="AW29">
+        <v>29.390396599999999</v>
+      </c>
+      <c r="AX29">
+        <v>6.4411991000000004</v>
+      </c>
+      <c r="AY29">
+        <v>1.1501737000000001</v>
+      </c>
+      <c r="AZ29">
+        <v>0.82423479999999993</v>
+      </c>
+      <c r="BA29">
+        <v>0.75268060000000003</v>
+      </c>
+      <c r="BB29">
+        <v>1.2762315</v>
+      </c>
+      <c r="BC29">
+        <v>0.95376030000000001</v>
+      </c>
+      <c r="BD29">
+        <v>0.88496050000000004</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.154E-4</v>
       </c>
@@ -4326,8 +5614,50 @@
       <c r="AP30">
         <v>1.6235132999999999</v>
       </c>
+      <c r="AQ30">
+        <v>6.6629999999999999E-4</v>
+      </c>
+      <c r="AR30">
+        <v>1.0820999999999999E-3</v>
+      </c>
+      <c r="AS30">
+        <v>7.0825352000000006</v>
+      </c>
+      <c r="AT30">
+        <v>27.325517099999999</v>
+      </c>
+      <c r="AU30">
+        <v>19.8406178</v>
+      </c>
+      <c r="AV30">
+        <v>6.3247499000000005</v>
+      </c>
+      <c r="AW30">
+        <v>19.064228700000001</v>
+      </c>
+      <c r="AX30">
+        <v>6.3951847000000006</v>
+      </c>
+      <c r="AY30">
+        <v>1.1392954</v>
+      </c>
+      <c r="AZ30">
+        <v>0.89716189999999996</v>
+      </c>
+      <c r="BA30">
+        <v>0.67453099999999999</v>
+      </c>
+      <c r="BB30">
+        <v>1.2623192000000001</v>
+      </c>
+      <c r="BC30">
+        <v>0.92748520000000001</v>
+      </c>
+      <c r="BD30">
+        <v>0.8823761</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.5679999999999998E-4</v>
       </c>
@@ -4453,6 +5783,48 @@
       </c>
       <c r="AP31">
         <v>1.7162938999999999</v>
+      </c>
+      <c r="AQ31">
+        <v>6.1530000000000005E-4</v>
+      </c>
+      <c r="AR31">
+        <v>7.9670000000000001E-4</v>
+      </c>
+      <c r="AS31">
+        <v>6.9088386000000002</v>
+      </c>
+      <c r="AT31">
+        <v>31.960235099999998</v>
+      </c>
+      <c r="AU31">
+        <v>23.954898199999999</v>
+      </c>
+      <c r="AV31">
+        <v>6.2631592000000005</v>
+      </c>
+      <c r="AW31">
+        <v>22.801033499999999</v>
+      </c>
+      <c r="AX31">
+        <v>6.3306929000000007</v>
+      </c>
+      <c r="AY31">
+        <v>1.1223702</v>
+      </c>
+      <c r="AZ31">
+        <v>0.90985680000000002</v>
+      </c>
+      <c r="BA31">
+        <v>0.64505860000000004</v>
+      </c>
+      <c r="BB31">
+        <v>1.2461878</v>
+      </c>
+      <c r="BC31">
+        <v>0.94506400000000002</v>
+      </c>
+      <c r="BD31">
+        <v>0.85168509999999997</v>
       </c>
     </row>
   </sheetData>
